--- a/TEST-4o.xlsx
+++ b/TEST-4o.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['Comments', 'Long Method', 'Primitive Obsession']</t>
+          <t>['Primitive Obsession', 'Comments', 'Long Method']</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -571,7 +571,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['Temporary Field', 'Primitive Obsession']</t>
+          <t>['Primitive Obsession', 'Temporary Field']</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -629,14 +629,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['Comments', 'Long Method', 'Long Parameter List', 'Primitive Obsession']</t>
+          <t>['Comments', 'Duplicate Code', 'Long Parameter List', 'Primitive Obsession', 'Long Method']</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['Data Class', 'Primitive Obsession']</t>
+          <t>['Primitive Obsession', 'Data Class']</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -706,7 +706,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DCLSBE1</t>
+          <t>DCLSGE1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -716,20 +716,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['Data Class', 'Primitive Obsession']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -745,7 +745,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['Duplicate Code', 'Long Parameter List', 'Large Class', 'Primitive Obsession']</t>
+          <t>['Primitive Obsession', 'Duplicate Code', 'Long Parameter List', 'Large Class']</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -774,7 +774,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['Data Clumps', 'Primitive Obsession', 'Feature Envy', 'Long Parameter List', 'Comments']</t>
+          <t>['Comments', 'Long Parameter List', 'Data Clumps', 'Primitive Obsession', 'Feature Envy']</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -803,7 +803,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['Inappropriate Intimacy', 'Large Class', 'Long Method', 'Primitive Obsession', 'Feature Envy']</t>
+          <t>['Inappropriate Intimacy', 'Primitive Obsession', 'Feature Envy', 'Large Class', 'Long Method']</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -890,7 +890,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['Temporary Field', 'Long Method', 'Primitive Obsession']</t>
+          <t>['Primitive Obsession', 'Temporary Field', 'Long Method']</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -948,7 +948,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['Switch Statements', 'Primitive Obsession']</t>
+          <t>['Primitive Obsession', 'Switch Statements']</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['Data Clumps', 'Primitive Obsession']</t>
+          <t>['Primitive Obsession', 'Data Clumps']</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['Primitive Obsession', 'Inappropriate Intimacy', 'Data Class', 'Refused Bequest']</t>
+          <t>['Inappropriate Intimacy', 'Primitive Obsession', 'Refused Bequest', 'Data Class']</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['Large Class', 'Data Clumps']</t>
+          <t>['Data Clumps', 'Large Class']</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['Primitive Obsession]</t>
+          <t>["'Primitive Obsession"]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[ 'Switch Statements', 'Primitive Obsession']</t>
+          <t>['Switch Statements', 'Primitive Obsession']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['Duplicate Code', 'Switch Statements', 'Primitive Obsession']</t>
+          <t>['Primitive Obsession', 'Duplicate Code', 'Switch Statements']</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['Switch Statements', 'Primitive Obsession']</t>
+          <t>['Primitive Obsession', 'Switch Statements']</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['Long Parameter List', 'Primitive Obsession']</t>
+          <t>['Primitive Obsession', 'Long Parameter List']</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['Data Clumps', 'Long Parameter List', 'Primitive Obsession']</t>
+          <t>['Primitive Obsession', 'Long Parameter List', 'Data Clumps']</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['Long Parameter List', 'Primitive Obsession']</t>
+          <t>['Primitive Obsession', 'Long Parameter List']</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['Long Method', 'Primitive Obsession']</t>
+          <t>['Primitive Obsession', 'Long Method']</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['Feature Envy', 'Primitive Obsession']</t>
+          <t>['Primitive Obsession', 'Feature Envy']</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['Data Clumps', 'Large Class', 'Primitive Obsession']</t>
+          <t>['Primitive Obsession', 'Data Clumps', 'Large Class']</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['Switch Statements', 'Primitive Obsession']</t>
+          <t>['Primitive Obsession', 'Switch Statements']</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2190,12 +2190,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>['Shotgun Surgery, 'Feature Envy', 'Duplicate Code', 'Primitive Obsession', 'Alternative Classes with Different Interfaces']</t>
+          <t>["'Shotgun Surgery", "'Feature Envy'", "'Duplicate Code'", "'Primitive Obsession'", "'Alternative Classes with Different Interfaces'"]</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['Duplicate Code', 'Switch Statements', 'Primitive Obsession']</t>
+          <t>['Primitive Obsession', 'Duplicate Code', 'Switch Statements']</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="7">
